--- a/biology/Zoologie/Bouscarle_de_Java/Bouscarle_de_Java.xlsx
+++ b/biology/Zoologie/Bouscarle_de_Java/Bouscarle_de_Java.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Locustella montis
 La Bouscarle de Java (Locustella montis) est une espèce de passereaux de la famille des Locustellidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est endémique des montagnes d'Indonésie.
 </t>
@@ -543,12 +557,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bouscarle de Java est actuellement divisée en deux sous-espèces [1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bouscarle de Java est actuellement divisée en deux sous-espèces :
 L. m. montis (Hartert, 1896) : la sous-espèce nominale. Vit sur les îles de Java et Bali.
 L. m. timorensis (Mayr, 1944) : Vit à Timor et Alor.
-La sous-espèce timorensis était anciennement considérée comme une espèce à part, la Bouscarle de Mayr. Elle est maintenant unanimement considérée comme une sous-espèce par les autorités taxonomiques[2], suivant l'analyse d'Alström et al. de 2015[3].
+La sous-espèce timorensis était anciennement considérée comme une espèce à part, la Bouscarle de Mayr. Elle est maintenant unanimement considérée comme une sous-espèce par les autorités taxonomiques, suivant l'analyse d'Alström et al. de 2015.
 </t>
         </is>
       </c>
